--- a/biology/Botanique/Morchella_anatolica/Morchella_anatolica.xlsx
+++ b/biology/Botanique/Morchella_anatolica/Morchella_anatolica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Morchella anatolica  de son nom vernaculaire la morille d'Anatolie est une espèce de champignons comestibles, du genre Morchella de la famille des Morchellaceae, découverte en 2009 en Anatolie. Elle est caractérisée par une couleur lilas et une absence de côtes transversales.
 </t>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nom binomial
-Morchella anatolica  Işiloğlu, Spooner, Alli et Solak 2009[1]
+          <t>Nom binomial</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Morchella anatolica  Işiloğlu, Spooner, Alli et Solak 2009
 </t>
         </is>
       </c>
@@ -543,7 +560,9 @@
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Hyménophore : chapeau creux, de 3 à 4 cm de haut, conique, pointu ou ovoïde, parcouru par de longues côtes généralement en séries parallèles, sans côtes transversales et donc sans alvéoles, couleur lilas à rose.
 Stipe : de 1 à 1,5 cm 
@@ -576,6 +595,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -601,7 +622,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La morille d'Anatolie se trouve dans les forêts de Pinus brutia, elle est grégaire sur la mousse.
 </t>
@@ -632,7 +655,9 @@
           <t>Comestibilité</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce champignon est comestible.
 </t>
